--- a/dataanalysis/data/predictions/1200/08281149_1151.xlsx
+++ b/dataanalysis/data/predictions/1200/08281149_1151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="164">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-28</t>
   </si>
   <si>
@@ -503,12 +506,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -866,13 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,19 +972,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300037</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.55</v>
@@ -1005,7 +1005,7 @@
         <v>92125.8</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1046,8 +1046,23 @@
       <c r="W2">
         <v>-0.31</v>
       </c>
+      <c r="X2">
+        <v>2.9</v>
+      </c>
+      <c r="Y2">
+        <v>49.56</v>
+      </c>
+      <c r="Z2">
+        <v>9.74</v>
+      </c>
       <c r="AC2" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1055,22 +1070,25 @@
       <c r="AG2">
         <v>10.68761825561523</v>
       </c>
-      <c r="AH2" t="s">
-        <v>163</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300049</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>12.45</v>
@@ -1088,7 +1106,7 @@
         <v>159163.84</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1129,8 +1147,23 @@
       <c r="W3">
         <v>0.49</v>
       </c>
+      <c r="X3">
+        <v>-0.03</v>
+      </c>
+      <c r="Y3">
+        <v>68</v>
+      </c>
+      <c r="Z3">
+        <v>7.27</v>
+      </c>
       <c r="AC3" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1138,22 +1171,25 @@
       <c r="AG3">
         <v>1.109711647033691</v>
       </c>
-      <c r="AH3" t="s">
-        <v>163</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300066</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.65</v>
@@ -1171,7 +1207,7 @@
         <v>85980.73</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>16</v>
@@ -1212,8 +1248,23 @@
       <c r="W4">
         <v>-0.5</v>
       </c>
+      <c r="X4">
+        <v>-4.18</v>
+      </c>
+      <c r="Y4">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>2.28</v>
+      </c>
       <c r="AC4" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1221,22 +1272,25 @@
       <c r="AG4">
         <v>-2.608496904373169</v>
       </c>
-      <c r="AH4" t="s">
-        <v>163</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300085</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>9.4</v>
@@ -1254,7 +1308,7 @@
         <v>407022.46</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1295,8 +1349,23 @@
       <c r="W5">
         <v>0.99</v>
       </c>
+      <c r="X5">
+        <v>0.35</v>
+      </c>
+      <c r="Y5">
+        <v>61.8</v>
+      </c>
+      <c r="Z5">
+        <v>8.16</v>
+      </c>
       <c r="AC5" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1304,22 +1373,25 @@
       <c r="AG5">
         <v>7.311230659484863</v>
       </c>
-      <c r="AH5" t="s">
-        <v>163</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300113</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.53</v>
@@ -1337,7 +1409,7 @@
         <v>74950.50999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1378,8 +1450,23 @@
       <c r="W6">
         <v>-0.42</v>
       </c>
+      <c r="X6">
+        <v>-2.79</v>
+      </c>
+      <c r="Y6">
+        <v>27.85</v>
+      </c>
+      <c r="Z6">
+        <v>2.88</v>
+      </c>
       <c r="AC6" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1387,22 +1474,25 @@
       <c r="AG6">
         <v>1.343564510345459</v>
       </c>
-      <c r="AH6" t="s">
-        <v>163</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300127</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>4.55</v>
@@ -1420,7 +1510,7 @@
         <v>99331.73</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1461,8 +1551,23 @@
       <c r="W7">
         <v>0.2</v>
       </c>
+      <c r="X7">
+        <v>-4.11</v>
+      </c>
+      <c r="Y7">
+        <v>36.16</v>
+      </c>
+      <c r="Z7">
+        <v>2.15</v>
+      </c>
       <c r="AC7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1470,22 +1575,25 @@
       <c r="AG7">
         <v>2.20163106918335</v>
       </c>
-      <c r="AH7" t="s">
-        <v>163</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300192</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.54</v>
@@ -1503,7 +1611,7 @@
         <v>120011.97</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1544,8 +1652,23 @@
       <c r="W8">
         <v>-0.05</v>
       </c>
+      <c r="X8">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>24.33</v>
+      </c>
+      <c r="Z8">
+        <v>5.78</v>
+      </c>
       <c r="AC8" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1553,22 +1676,25 @@
       <c r="AG8">
         <v>1.121152997016907</v>
       </c>
-      <c r="AH8" t="s">
-        <v>163</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300218</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.25</v>
@@ -1586,7 +1712,7 @@
         <v>42858.42</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1627,8 +1753,23 @@
       <c r="W9">
         <v>0.72</v>
       </c>
+      <c r="X9">
+        <v>-2.08</v>
+      </c>
+      <c r="Y9">
+        <v>26.4</v>
+      </c>
+      <c r="Z9">
+        <v>4.27</v>
+      </c>
       <c r="AC9" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1636,22 +1777,25 @@
       <c r="AG9">
         <v>4.085846424102783</v>
       </c>
-      <c r="AH9" t="s">
-        <v>163</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300222</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-7.62</v>
@@ -1669,7 +1813,7 @@
         <v>210499.4</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1710,8 +1854,23 @@
       <c r="W10">
         <v>-3.59</v>
       </c>
+      <c r="X10">
+        <v>-5.38</v>
+      </c>
+      <c r="Y10">
+        <v>14.1</v>
+      </c>
+      <c r="Z10">
+        <v>1.95</v>
+      </c>
       <c r="AC10" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1719,22 +1878,25 @@
       <c r="AG10">
         <v>1.873446702957153</v>
       </c>
-      <c r="AH10" t="s">
-        <v>163</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300224</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.44</v>
@@ -1752,7 +1914,7 @@
         <v>163382.02</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1793,8 +1955,23 @@
       <c r="W11">
         <v>-0.18</v>
       </c>
+      <c r="X11">
+        <v>-2.35</v>
+      </c>
+      <c r="Y11">
+        <v>20.08</v>
+      </c>
+      <c r="Z11">
+        <v>1.67</v>
+      </c>
       <c r="AC11" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1802,22 +1979,25 @@
       <c r="AG11">
         <v>4.28289794921875</v>
       </c>
-      <c r="AH11" t="s">
-        <v>163</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300236</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>13.59</v>
@@ -1835,7 +2015,7 @@
         <v>195443.72</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1876,8 +2056,23 @@
       <c r="W12">
         <v>-0.43</v>
       </c>
+      <c r="X12">
+        <v>-6.16</v>
+      </c>
+      <c r="Y12">
+        <v>59.5</v>
+      </c>
+      <c r="Z12">
+        <v>-1.42</v>
+      </c>
       <c r="AC12" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1885,22 +2080,25 @@
       <c r="AG12">
         <v>-1.954951167106628</v>
       </c>
-      <c r="AH12" t="s">
-        <v>163</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300237</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>3.76</v>
@@ -1918,7 +2116,7 @@
         <v>49984.19</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1959,8 +2157,23 @@
       <c r="W13">
         <v>0.1</v>
       </c>
+      <c r="X13">
+        <v>-5.76</v>
+      </c>
+      <c r="Y13">
+        <v>2.93</v>
+      </c>
+      <c r="Z13">
+        <v>6.16</v>
+      </c>
       <c r="AC13" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1968,22 +2181,25 @@
       <c r="AG13">
         <v>2.982113838195801</v>
       </c>
-      <c r="AH13" t="s">
-        <v>163</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300308</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.51</v>
@@ -2001,7 +2217,7 @@
         <v>1279950.85</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>33</v>
@@ -2042,8 +2258,23 @@
       <c r="W14">
         <v>0.05</v>
       </c>
+      <c r="X14">
+        <v>-1.14</v>
+      </c>
+      <c r="Y14">
+        <v>367.7</v>
+      </c>
+      <c r="Z14">
+        <v>6.19</v>
+      </c>
       <c r="AC14" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2051,22 +2282,25 @@
       <c r="AG14">
         <v>-9.01444149017334</v>
       </c>
-      <c r="AH14" t="s">
-        <v>163</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300324</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>2.47</v>
@@ -2084,7 +2318,7 @@
         <v>125011.87</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -2125,8 +2359,23 @@
       <c r="W15">
         <v>0.36</v>
       </c>
+      <c r="X15">
+        <v>-5.99</v>
+      </c>
+      <c r="Y15">
+        <v>6.75</v>
+      </c>
+      <c r="Z15">
+        <v>8.35</v>
+      </c>
       <c r="AC15" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2134,22 +2383,25 @@
       <c r="AG15">
         <v>3.357789278030396</v>
       </c>
-      <c r="AH15" t="s">
-        <v>163</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300339</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.32</v>
@@ -2167,7 +2419,7 @@
         <v>370074.37</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2208,8 +2460,23 @@
       <c r="W16">
         <v>-0.38</v>
       </c>
+      <c r="X16">
+        <v>-4.87</v>
+      </c>
+      <c r="Y16">
+        <v>69</v>
+      </c>
+      <c r="Z16">
+        <v>3.65</v>
+      </c>
       <c r="AC16" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2217,22 +2484,25 @@
       <c r="AG16">
         <v>-7.885383605957031</v>
       </c>
-      <c r="AH16" t="s">
-        <v>163</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300394</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>18.07</v>
@@ -2250,7 +2520,7 @@
         <v>946671</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17">
         <v>23</v>
@@ -2291,8 +2561,23 @@
       <c r="W17">
         <v>0.32</v>
       </c>
+      <c r="X17">
+        <v>10.29</v>
+      </c>
+      <c r="Y17">
+        <v>200.88</v>
+      </c>
+      <c r="Z17">
+        <v>13.41</v>
+      </c>
       <c r="AC17" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2300,22 +2585,25 @@
       <c r="AG17">
         <v>8.225080490112305</v>
       </c>
-      <c r="AH17" t="s">
-        <v>163</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300433</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.71</v>
@@ -2333,7 +2621,7 @@
         <v>269578.14</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2374,8 +2662,23 @@
       <c r="W18">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X18">
+        <v>-2.23</v>
+      </c>
+      <c r="Y18">
+        <v>32</v>
+      </c>
+      <c r="Z18">
+        <v>4.75</v>
+      </c>
       <c r="AC18" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2383,22 +2686,25 @@
       <c r="AG18">
         <v>159.2730255126953</v>
       </c>
-      <c r="AH18" t="s">
-        <v>163</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300458</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.17</v>
@@ -2416,7 +2722,7 @@
         <v>273291.55</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2457,8 +2763,23 @@
       <c r="W19">
         <v>0.3</v>
       </c>
+      <c r="X19">
+        <v>-3.26</v>
+      </c>
+      <c r="Y19">
+        <v>47.59</v>
+      </c>
+      <c r="Z19">
+        <v>-0.61</v>
+      </c>
       <c r="AC19" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2466,22 +2787,25 @@
       <c r="AG19">
         <v>4.859977245330811</v>
       </c>
-      <c r="AH19" t="s">
-        <v>163</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300465</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.21</v>
@@ -2499,7 +2823,7 @@
         <v>139322.74</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2540,8 +2864,23 @@
       <c r="W20">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X20">
+        <v>10.06</v>
+      </c>
+      <c r="Y20">
+        <v>24.26</v>
+      </c>
+      <c r="Z20">
+        <v>13.31</v>
+      </c>
       <c r="AC20" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2549,22 +2888,25 @@
       <c r="AG20">
         <v>13.41873359680176</v>
       </c>
-      <c r="AH20" t="s">
-        <v>163</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300469</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>6.78</v>
@@ -2582,7 +2924,7 @@
         <v>94801.75</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2623,8 +2965,23 @@
       <c r="W21">
         <v>0.02</v>
       </c>
+      <c r="X21">
+        <v>0.67</v>
+      </c>
+      <c r="Y21">
+        <v>58</v>
+      </c>
+      <c r="Z21">
+        <v>4.86</v>
+      </c>
       <c r="AC21" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2632,22 +2989,25 @@
       <c r="AG21">
         <v>3.493409156799316</v>
       </c>
-      <c r="AH21" t="s">
-        <v>163</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300486</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-6</v>
@@ -2665,7 +3025,7 @@
         <v>106424.49</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2706,8 +3066,23 @@
       <c r="W22">
         <v>-0.77</v>
       </c>
+      <c r="X22">
+        <v>-7.02</v>
+      </c>
+      <c r="Y22">
+        <v>22.1</v>
+      </c>
+      <c r="Z22">
+        <v>1.42</v>
+      </c>
       <c r="AC22" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2715,22 +3090,25 @@
       <c r="AG22">
         <v>6.094509601593018</v>
       </c>
-      <c r="AH22" t="s">
-        <v>163</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300491</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>4.8</v>
@@ -2748,7 +3126,7 @@
         <v>46721.71</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2789,8 +3167,23 @@
       <c r="W23">
         <v>-0.54</v>
       </c>
+      <c r="X23">
+        <v>5.86</v>
+      </c>
+      <c r="Y23">
+        <v>39.9</v>
+      </c>
+      <c r="Z23">
+        <v>25.16</v>
+      </c>
       <c r="AC23" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2798,22 +3191,25 @@
       <c r="AG23">
         <v>2.133268117904663</v>
       </c>
-      <c r="AH23" t="s">
-        <v>163</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300496</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.59</v>
@@ -2831,7 +3227,7 @@
         <v>352594.51</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2872,8 +3268,23 @@
       <c r="W24">
         <v>-0.35</v>
       </c>
+      <c r="X24">
+        <v>1.24</v>
+      </c>
+      <c r="Y24">
+        <v>80.98</v>
+      </c>
+      <c r="Z24">
+        <v>3.99</v>
+      </c>
       <c r="AC24" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2881,22 +3292,25 @@
       <c r="AG24">
         <v>10.26018047332764</v>
       </c>
-      <c r="AH24" t="s">
-        <v>163</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300499</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.19</v>
@@ -2914,7 +3328,7 @@
         <v>164112.47</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -2955,8 +3369,23 @@
       <c r="W25">
         <v>-0.55</v>
       </c>
+      <c r="X25">
+        <v>-1.76</v>
+      </c>
+      <c r="Y25">
+        <v>34.23</v>
+      </c>
+      <c r="Z25">
+        <v>6.37</v>
+      </c>
       <c r="AC25" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -2964,22 +3393,25 @@
       <c r="AG25">
         <v>3.351693391799927</v>
       </c>
-      <c r="AH25" t="s">
-        <v>163</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300502</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>6.98</v>
@@ -2997,7 +3429,7 @@
         <v>1477310.26</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K26">
         <v>47</v>
@@ -3038,8 +3470,23 @@
       <c r="W26">
         <v>0.24</v>
       </c>
+      <c r="X26">
+        <v>0.35</v>
+      </c>
+      <c r="Y26">
+        <v>368</v>
+      </c>
+      <c r="Z26">
+        <v>11.56</v>
+      </c>
       <c r="AC26" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3047,22 +3494,25 @@
       <c r="AG26">
         <v>0.218159019947052</v>
       </c>
-      <c r="AH26" t="s">
-        <v>163</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300503</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.53</v>
@@ -3080,7 +3530,7 @@
         <v>49748.63</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3121,8 +3571,23 @@
       <c r="W27">
         <v>0.01</v>
       </c>
+      <c r="X27">
+        <v>-0.1</v>
+      </c>
+      <c r="Y27">
+        <v>30.98</v>
+      </c>
+      <c r="Z27">
+        <v>2.55</v>
+      </c>
       <c r="AC27" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3130,22 +3595,25 @@
       <c r="AG27">
         <v>5.391325950622559</v>
       </c>
-      <c r="AH27" t="s">
-        <v>163</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300547</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>1.59</v>
@@ -3163,7 +3631,7 @@
         <v>116560.52</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28">
         <v>10</v>
@@ -3204,8 +3672,23 @@
       <c r="W28">
         <v>0</v>
       </c>
+      <c r="X28">
+        <v>-7.78</v>
+      </c>
+      <c r="Y28">
+        <v>53.4</v>
+      </c>
+      <c r="Z28">
+        <v>3.09</v>
+      </c>
       <c r="AC28" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3213,22 +3696,25 @@
       <c r="AG28">
         <v>5.873581886291504</v>
       </c>
-      <c r="AH28" t="s">
-        <v>163</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300548</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>11.31</v>
@@ -3246,7 +3732,7 @@
         <v>329600.26</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>33</v>
@@ -3287,8 +3773,23 @@
       <c r="W29">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X29">
+        <v>-11.57</v>
+      </c>
+      <c r="Y29">
+        <v>151.4</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
       <c r="AC29" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3296,22 +3797,25 @@
       <c r="AG29">
         <v>10.17861270904541</v>
       </c>
-      <c r="AH29" t="s">
-        <v>163</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300570</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>8.300000000000001</v>
@@ -3329,7 +3833,7 @@
         <v>393062.37</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3370,8 +3874,23 @@
       <c r="W30">
         <v>0.36</v>
       </c>
+      <c r="X30">
+        <v>2.53</v>
+      </c>
+      <c r="Y30">
+        <v>145.5</v>
+      </c>
+      <c r="Z30">
+        <v>8.289999999999999</v>
+      </c>
       <c r="AC30" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3379,22 +3898,25 @@
       <c r="AG30">
         <v>-5.178261756896973</v>
       </c>
-      <c r="AH30" t="s">
-        <v>163</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300604</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>4.31</v>
@@ -3412,7 +3934,7 @@
         <v>410087.3</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3453,8 +3975,23 @@
       <c r="W31">
         <v>-0.53</v>
       </c>
+      <c r="X31">
+        <v>-2.56</v>
+      </c>
+      <c r="Y31">
+        <v>61.55</v>
+      </c>
+      <c r="Z31">
+        <v>-0.98</v>
+      </c>
       <c r="AC31" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3462,22 +3999,25 @@
       <c r="AG31">
         <v>6.975759506225586</v>
       </c>
-      <c r="AH31" t="s">
-        <v>163</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300620</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>13.86</v>
@@ -3495,7 +4035,7 @@
         <v>286032.33</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -3536,8 +4076,23 @@
       <c r="W32">
         <v>0.08</v>
       </c>
+      <c r="X32">
+        <v>-3.98</v>
+      </c>
+      <c r="Y32">
+        <v>100.8</v>
+      </c>
+      <c r="Z32">
+        <v>-1.66</v>
+      </c>
       <c r="AC32" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3545,22 +4100,25 @@
       <c r="AG32">
         <v>7.524398326873779</v>
       </c>
-      <c r="AH32" t="s">
-        <v>163</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300642</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-7.27</v>
@@ -3578,7 +4136,7 @@
         <v>49752.65</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -3619,8 +4177,23 @@
       <c r="W33">
         <v>-0.87</v>
       </c>
+      <c r="X33">
+        <v>10.4</v>
+      </c>
+      <c r="Y33">
+        <v>31.94</v>
+      </c>
+      <c r="Z33">
+        <v>16.48</v>
+      </c>
       <c r="AC33" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3628,22 +4201,25 @@
       <c r="AG33">
         <v>4.767861366271973</v>
       </c>
-      <c r="AH33" t="s">
-        <v>163</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300724</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>17.05</v>
@@ -3661,7 +4237,7 @@
         <v>392334.98</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3702,8 +4278,23 @@
       <c r="W34">
         <v>0.17</v>
       </c>
+      <c r="X34">
+        <v>-0.01</v>
+      </c>
+      <c r="Y34">
+        <v>101.38</v>
+      </c>
+      <c r="Z34">
+        <v>2.77</v>
+      </c>
       <c r="AC34" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3711,22 +4302,25 @@
       <c r="AG34">
         <v>14.89384174346924</v>
       </c>
-      <c r="AH34" t="s">
-        <v>163</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300740</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-2.82</v>
@@ -3744,7 +4338,7 @@
         <v>64014.58</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3785,8 +4379,23 @@
       <c r="W35">
         <v>-0.24</v>
       </c>
+      <c r="X35">
+        <v>1.14</v>
+      </c>
+      <c r="Y35">
+        <v>24.28</v>
+      </c>
+      <c r="Z35">
+        <v>8.300000000000001</v>
+      </c>
       <c r="AC35" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3794,22 +4403,25 @@
       <c r="AG35">
         <v>2.66954779624939</v>
       </c>
-      <c r="AH35" t="s">
-        <v>163</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300748</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>9.23</v>
@@ -3827,7 +4439,7 @@
         <v>487089.87</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>35</v>
@@ -3868,8 +4480,23 @@
       <c r="W36">
         <v>0.19</v>
       </c>
+      <c r="X36">
+        <v>-3.73</v>
+      </c>
+      <c r="Y36">
+        <v>44.14</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
       <c r="AC36" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3877,22 +4504,25 @@
       <c r="AG36">
         <v>2.643100023269653</v>
       </c>
-      <c r="AH36" t="s">
-        <v>163</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300757</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-0.61</v>
@@ -3910,7 +4540,7 @@
         <v>248004.25</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3951,8 +4581,23 @@
       <c r="W37">
         <v>-0.38</v>
       </c>
+      <c r="X37">
+        <v>-1.91</v>
+      </c>
+      <c r="Y37">
+        <v>293.88</v>
+      </c>
+      <c r="Z37">
+        <v>11.25</v>
+      </c>
       <c r="AC37" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3960,22 +4605,25 @@
       <c r="AG37">
         <v>8.04810905456543</v>
       </c>
-      <c r="AH37" t="s">
-        <v>163</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300767</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-5.56</v>
@@ -3993,7 +4641,7 @@
         <v>55005.64</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -4034,8 +4682,23 @@
       <c r="W38">
         <v>-1.08</v>
       </c>
+      <c r="X38">
+        <v>-3.59</v>
+      </c>
+      <c r="Y38">
+        <v>24.27</v>
+      </c>
+      <c r="Z38">
+        <v>2.8</v>
+      </c>
       <c r="AC38" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4043,22 +4706,25 @@
       <c r="AG38">
         <v>3.49497389793396</v>
       </c>
-      <c r="AH38" t="s">
-        <v>163</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300803</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-4.22</v>
@@ -4076,7 +4742,7 @@
         <v>684593.41</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>13</v>
@@ -4117,8 +4783,23 @@
       <c r="W39">
         <v>-1.19</v>
       </c>
+      <c r="X39">
+        <v>-4.05</v>
+      </c>
+      <c r="Y39">
+        <v>166</v>
+      </c>
+      <c r="Z39">
+        <v>14.19</v>
+      </c>
       <c r="AC39" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4126,22 +4807,25 @@
       <c r="AG39">
         <v>12.44179058074951</v>
       </c>
-      <c r="AH39" t="s">
-        <v>163</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300835</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.51</v>
@@ -4159,7 +4843,7 @@
         <v>57727.81</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K40">
         <v>28</v>
@@ -4200,8 +4884,23 @@
       <c r="W40">
         <v>0.32</v>
       </c>
+      <c r="X40">
+        <v>-3.01</v>
+      </c>
+      <c r="Y40">
+        <v>68.38</v>
+      </c>
+      <c r="Z40">
+        <v>0.77</v>
+      </c>
       <c r="AC40" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4209,22 +4908,25 @@
       <c r="AG40">
         <v>12.62654304504395</v>
       </c>
-      <c r="AH40" t="s">
-        <v>163</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300843</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>12.52</v>
@@ -4242,7 +4944,7 @@
         <v>93048.61</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -4283,8 +4985,23 @@
       <c r="W41">
         <v>1.05</v>
       </c>
+      <c r="X41">
+        <v>-2.02</v>
+      </c>
+      <c r="Y41">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>4.54</v>
+      </c>
       <c r="AC41" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4292,22 +5009,25 @@
       <c r="AG41">
         <v>2.654416561126709</v>
       </c>
-      <c r="AH41" t="s">
-        <v>163</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300870</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>5.34</v>
@@ -4325,7 +5045,7 @@
         <v>124867.46</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>12</v>
@@ -4366,8 +5086,23 @@
       <c r="W42">
         <v>0.18</v>
       </c>
+      <c r="X42">
+        <v>-4.63</v>
+      </c>
+      <c r="Y42">
+        <v>276</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
       <c r="AC42" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4375,22 +5110,25 @@
       <c r="AG42">
         <v>1.421513438224792</v>
       </c>
-      <c r="AH42" t="s">
-        <v>163</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300882</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-3.69</v>
@@ -4408,7 +5146,7 @@
         <v>32683.05</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4449,8 +5187,23 @@
       <c r="W43">
         <v>-0.14</v>
       </c>
+      <c r="X43">
+        <v>-4.24</v>
+      </c>
+      <c r="Y43">
+        <v>19.15</v>
+      </c>
+      <c r="Z43">
+        <v>1.92</v>
+      </c>
       <c r="AC43" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4458,22 +5211,25 @@
       <c r="AG43">
         <v>2.153407335281372</v>
       </c>
-      <c r="AH43" t="s">
-        <v>163</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300913</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.77</v>
@@ -4491,7 +5247,7 @@
         <v>97867.92999999999</v>
       </c>
       <c r="J44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4532,8 +5288,23 @@
       <c r="W44">
         <v>0.03</v>
       </c>
+      <c r="X44">
+        <v>-4.56</v>
+      </c>
+      <c r="Y44">
+        <v>65.2</v>
+      </c>
+      <c r="Z44">
+        <v>4.29</v>
+      </c>
       <c r="AC44" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4541,22 +5312,25 @@
       <c r="AG44">
         <v>4.118661403656006</v>
       </c>
-      <c r="AH44" t="s">
-        <v>163</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300971</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.08</v>
@@ -4574,7 +5348,7 @@
         <v>42000.58</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4615,8 +5389,23 @@
       <c r="W45">
         <v>-0.24</v>
       </c>
+      <c r="X45">
+        <v>-5.74</v>
+      </c>
+      <c r="Y45">
+        <v>25.86</v>
+      </c>
+      <c r="Z45">
+        <v>1.73</v>
+      </c>
       <c r="AC45" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4624,22 +5413,25 @@
       <c r="AG45">
         <v>3.637768507003784</v>
       </c>
-      <c r="AH45" t="s">
-        <v>163</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300991</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.98</v>
@@ -4657,7 +5449,7 @@
         <v>33228.46</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4698,8 +5490,23 @@
       <c r="W46">
         <v>0.27</v>
       </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>44.94</v>
+      </c>
+      <c r="Z46">
+        <v>2.49</v>
+      </c>
       <c r="AC46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4707,22 +5514,25 @@
       <c r="AG46">
         <v>1.247598886489868</v>
       </c>
-      <c r="AH46" t="s">
-        <v>163</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301008</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-3.89</v>
@@ -4740,7 +5550,7 @@
         <v>34924.24</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -4781,8 +5591,23 @@
       <c r="W47">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X47">
+        <v>-1.24</v>
+      </c>
+      <c r="Y47">
+        <v>32.79</v>
+      </c>
+      <c r="Z47">
+        <v>2.76</v>
+      </c>
       <c r="AC47" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4790,22 +5615,25 @@
       <c r="AG47">
         <v>3.801742315292358</v>
       </c>
-      <c r="AH47" t="s">
-        <v>163</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301018</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>7.19</v>
@@ -4823,7 +5651,7 @@
         <v>108214.49</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K48">
         <v>12</v>
@@ -4864,8 +5692,23 @@
       <c r="W48">
         <v>0.12</v>
       </c>
+      <c r="X48">
+        <v>1.75</v>
+      </c>
+      <c r="Y48">
+        <v>84.98</v>
+      </c>
+      <c r="Z48">
+        <v>14.3</v>
+      </c>
       <c r="AC48" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4873,22 +5716,25 @@
       <c r="AG48">
         <v>3.040194749832153</v>
       </c>
-      <c r="AH48" t="s">
-        <v>163</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301128</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0.87</v>
@@ -4906,7 +5752,7 @@
         <v>71209.39</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K49">
         <v>12</v>
@@ -4947,8 +5793,23 @@
       <c r="W49">
         <v>0.09</v>
       </c>
+      <c r="X49">
+        <v>-8</v>
+      </c>
+      <c r="Y49">
+        <v>104.49</v>
+      </c>
+      <c r="Z49">
+        <v>1.74</v>
+      </c>
       <c r="AC49" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4956,22 +5817,25 @@
       <c r="AG49">
         <v>4.703016757965088</v>
       </c>
-      <c r="AH49" t="s">
-        <v>163</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301165</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.71</v>
@@ -4989,7 +5853,7 @@
         <v>89201.03</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K50">
         <v>13</v>
@@ -5030,8 +5894,23 @@
       <c r="W50">
         <v>-0.31</v>
       </c>
+      <c r="X50">
+        <v>-4.7</v>
+      </c>
+      <c r="Y50">
+        <v>92</v>
+      </c>
+      <c r="Z50">
+        <v>1.98</v>
+      </c>
       <c r="AC50" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5039,22 +5918,25 @@
       <c r="AG50">
         <v>5.552549839019775</v>
       </c>
-      <c r="AH50" t="s">
-        <v>163</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301172</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.86</v>
@@ -5072,7 +5954,7 @@
         <v>27766.88</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5113,8 +5995,23 @@
       <c r="W51">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X51">
+        <v>-6</v>
+      </c>
+      <c r="Y51">
+        <v>26.27</v>
+      </c>
+      <c r="Z51">
+        <v>3.92</v>
+      </c>
       <c r="AC51" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5122,22 +6019,25 @@
       <c r="AG51">
         <v>0.5978631377220154</v>
       </c>
-      <c r="AH51" t="s">
-        <v>163</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301183</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>15.35</v>
@@ -5155,7 +6055,7 @@
         <v>151500.45</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5196,8 +6096,23 @@
       <c r="W52">
         <v>-0.52</v>
       </c>
+      <c r="X52">
+        <v>-0.47</v>
+      </c>
+      <c r="Y52">
+        <v>113.22</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
       <c r="AC52" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5205,22 +6120,25 @@
       <c r="AG52">
         <v>7.17213249206543</v>
       </c>
-      <c r="AH52" t="s">
-        <v>163</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301312</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.88</v>
@@ -5238,7 +6156,7 @@
         <v>32645.11</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K53">
         <v>14</v>
@@ -5279,8 +6197,23 @@
       <c r="W53">
         <v>-0.03</v>
       </c>
+      <c r="X53">
+        <v>-0.11</v>
+      </c>
+      <c r="Y53">
+        <v>60.88</v>
+      </c>
+      <c r="Z53">
+        <v>10.99</v>
+      </c>
       <c r="AC53" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5288,22 +6221,25 @@
       <c r="AG53">
         <v>-1.637993335723877</v>
       </c>
-      <c r="AH53" t="s">
-        <v>163</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301316</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>7.73</v>
@@ -5321,7 +6257,7 @@
         <v>167356.13</v>
       </c>
       <c r="J54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5362,8 +6298,23 @@
       <c r="W54">
         <v>1.07</v>
       </c>
+      <c r="X54">
+        <v>5.63</v>
+      </c>
+      <c r="Y54">
+        <v>64.75</v>
+      </c>
+      <c r="Z54">
+        <v>8.82</v>
+      </c>
       <c r="AC54" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5371,22 +6322,25 @@
       <c r="AG54">
         <v>4.034269332885742</v>
       </c>
-      <c r="AH54" t="s">
-        <v>163</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301363</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-3.95</v>
@@ -5404,7 +6358,7 @@
         <v>39177.96</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5445,8 +6399,23 @@
       <c r="W55">
         <v>-0.42</v>
       </c>
+      <c r="X55">
+        <v>-4.25</v>
+      </c>
+      <c r="Y55">
+        <v>25.18</v>
+      </c>
+      <c r="Z55">
+        <v>2.48</v>
+      </c>
       <c r="AC55" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5454,22 +6423,25 @@
       <c r="AG55">
         <v>-2.337671041488647</v>
       </c>
-      <c r="AH55" t="s">
-        <v>163</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301377</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>4.05</v>
@@ -5487,7 +6459,7 @@
         <v>44766.44</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K56">
         <v>14</v>
@@ -5528,8 +6500,23 @@
       <c r="W56">
         <v>0.36</v>
       </c>
+      <c r="X56">
+        <v>-2.18</v>
+      </c>
+      <c r="Y56">
+        <v>76.39</v>
+      </c>
+      <c r="Z56">
+        <v>3.5</v>
+      </c>
       <c r="AC56" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5537,22 +6524,25 @@
       <c r="AG56">
         <v>0.8431249856948853</v>
       </c>
-      <c r="AH56" t="s">
-        <v>163</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301389</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>12.05</v>
@@ -5570,7 +6560,7 @@
         <v>166499.05</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K57">
         <v>38</v>
@@ -5611,8 +6601,23 @@
       <c r="W57">
         <v>1.91</v>
       </c>
+      <c r="X57">
+        <v>5.13</v>
+      </c>
+      <c r="Y57">
+        <v>81.58</v>
+      </c>
+      <c r="Z57">
+        <v>20.38</v>
+      </c>
       <c r="AC57" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5620,22 +6625,25 @@
       <c r="AG57">
         <v>-6.435726165771484</v>
       </c>
-      <c r="AH57" t="s">
-        <v>163</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301488</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -5653,7 +6661,7 @@
         <v>69163.8</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5694,8 +6702,23 @@
       <c r="W58">
         <v>1.71</v>
       </c>
+      <c r="X58">
+        <v>6.69</v>
+      </c>
+      <c r="Y58">
+        <v>131.95</v>
+      </c>
+      <c r="Z58">
+        <v>14.41</v>
+      </c>
       <c r="AC58" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5703,22 +6726,25 @@
       <c r="AG58">
         <v>15.36007976531982</v>
       </c>
-      <c r="AH58" t="s">
-        <v>164</v>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301489</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>10.26</v>
@@ -5736,7 +6762,7 @@
         <v>67844.25999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K59">
         <v>21</v>
@@ -5777,8 +6803,23 @@
       <c r="W59">
         <v>0.41</v>
       </c>
+      <c r="X59">
+        <v>10.58</v>
+      </c>
+      <c r="Y59">
+        <v>219.98</v>
+      </c>
+      <c r="Z59">
+        <v>18.34</v>
+      </c>
       <c r="AC59" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5786,22 +6827,25 @@
       <c r="AG59">
         <v>-6.01113224029541</v>
       </c>
-      <c r="AH59" t="s">
-        <v>163</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301526</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>19.97</v>
@@ -5819,7 +6863,7 @@
         <v>204528.05</v>
       </c>
       <c r="J60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K60">
         <v>16</v>
@@ -5860,8 +6904,23 @@
       <c r="W60">
         <v>3.21</v>
       </c>
+      <c r="X60">
+        <v>-1.27</v>
+      </c>
+      <c r="Y60">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>8.390000000000001</v>
+      </c>
       <c r="AC60" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5869,22 +6928,25 @@
       <c r="AG60">
         <v>5.530300617218018</v>
       </c>
-      <c r="AH60" t="s">
-        <v>163</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301568</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>19.99</v>
@@ -5902,7 +6964,7 @@
         <v>66046.78</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5943,8 +7005,23 @@
       <c r="W61">
         <v>2.51</v>
       </c>
+      <c r="X61">
+        <v>-7.98</v>
+      </c>
+      <c r="Y61">
+        <v>57.99</v>
+      </c>
+      <c r="Z61">
+        <v>-3.77</v>
+      </c>
       <c r="AC61" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5952,22 +7029,25 @@
       <c r="AG61">
         <v>11.53768730163574</v>
       </c>
-      <c r="AH61" t="s">
-        <v>164</v>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301603</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>13.69</v>
@@ -5985,7 +7065,7 @@
         <v>74837.94</v>
       </c>
       <c r="J62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6026,8 +7106,23 @@
       <c r="W62">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X62">
+        <v>-0.36</v>
+      </c>
+      <c r="Y62">
+        <v>82.8</v>
+      </c>
+      <c r="Z62">
+        <v>2.35</v>
+      </c>
       <c r="AC62" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6035,22 +7130,25 @@
       <c r="AG62">
         <v>2.5025794506073</v>
       </c>
-      <c r="AH62" t="s">
-        <v>163</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688007</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-3.46</v>
@@ -6068,7 +7166,7 @@
         <v>39259.37</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6109,8 +7207,23 @@
       <c r="W63">
         <v>-0.45</v>
       </c>
+      <c r="X63">
+        <v>-3.18</v>
+      </c>
+      <c r="Y63">
+        <v>22.79</v>
+      </c>
+      <c r="Z63">
+        <v>4.59</v>
+      </c>
       <c r="AC63" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6118,22 +7231,25 @@
       <c r="AG63">
         <v>5.142887592315674</v>
       </c>
-      <c r="AH63" t="s">
-        <v>163</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688041</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>3.31</v>
@@ -6151,7 +7267,7 @@
         <v>830415.16</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6192,8 +7308,23 @@
       <c r="W64">
         <v>0.01</v>
       </c>
+      <c r="X64">
+        <v>-5.11</v>
+      </c>
+      <c r="Y64">
+        <v>199.82</v>
+      </c>
+      <c r="Z64">
+        <v>0.77</v>
+      </c>
       <c r="AC64" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6201,22 +7332,25 @@
       <c r="AG64">
         <v>22.05823707580566</v>
       </c>
-      <c r="AH64" t="s">
-        <v>163</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688048</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>8.41</v>
@@ -6234,7 +7368,7 @@
         <v>75080.25999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K65">
         <v>19</v>
@@ -6275,8 +7409,23 @@
       <c r="W65">
         <v>0.09</v>
       </c>
+      <c r="X65">
+        <v>-5.45</v>
+      </c>
+      <c r="Y65">
+        <v>82.7</v>
+      </c>
+      <c r="Z65">
+        <v>-0.73</v>
+      </c>
       <c r="AC65" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6284,22 +7433,25 @@
       <c r="AG65">
         <v>5.825723648071289</v>
       </c>
-      <c r="AH65" t="s">
-        <v>163</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688049</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.39</v>
@@ -6317,7 +7469,7 @@
         <v>94188.38</v>
       </c>
       <c r="J66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K66">
         <v>11</v>
@@ -6358,8 +7510,23 @@
       <c r="W66">
         <v>0.34</v>
       </c>
+      <c r="X66">
+        <v>-1.14</v>
+      </c>
+      <c r="Y66">
+        <v>63.56</v>
+      </c>
+      <c r="Z66">
+        <v>1.07</v>
+      </c>
       <c r="AC66" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6367,22 +7534,25 @@
       <c r="AG66">
         <v>2.191296577453613</v>
       </c>
-      <c r="AH66" t="s">
-        <v>163</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688062</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>0.93</v>
@@ -6400,7 +7570,7 @@
         <v>57731.86</v>
       </c>
       <c r="J67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6441,8 +7611,23 @@
       <c r="W67">
         <v>0.11</v>
       </c>
+      <c r="X67">
+        <v>4.58</v>
+      </c>
+      <c r="Y67">
+        <v>50.36</v>
+      </c>
+      <c r="Z67">
+        <v>10.68</v>
+      </c>
       <c r="AC67" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6450,22 +7635,25 @@
       <c r="AG67">
         <v>6.542356967926025</v>
       </c>
-      <c r="AH67" t="s">
-        <v>163</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688066</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-1.87</v>
@@ -6483,7 +7671,7 @@
         <v>88360.28999999999</v>
       </c>
       <c r="J68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6524,8 +7712,23 @@
       <c r="W68">
         <v>-0.57</v>
       </c>
+      <c r="X68">
+        <v>17.94</v>
+      </c>
+      <c r="Y68">
+        <v>39.4</v>
+      </c>
+      <c r="Z68">
+        <v>17.54</v>
+      </c>
       <c r="AC68" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6533,22 +7736,25 @@
       <c r="AG68">
         <v>3.474948167800903</v>
       </c>
-      <c r="AH68" t="s">
-        <v>163</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688077</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>5.54</v>
@@ -6566,7 +7772,7 @@
         <v>58670.41</v>
       </c>
       <c r="J69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6607,8 +7813,23 @@
       <c r="W69">
         <v>0.87</v>
       </c>
+      <c r="X69">
+        <v>-3.13</v>
+      </c>
+      <c r="Y69">
+        <v>43.73</v>
+      </c>
+      <c r="Z69">
+        <v>2.94</v>
+      </c>
       <c r="AC69" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6616,22 +7837,25 @@
       <c r="AG69">
         <v>25.72622871398926</v>
       </c>
-      <c r="AH69" t="s">
-        <v>163</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688110</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>6.31</v>
@@ -6649,7 +7873,7 @@
         <v>335556.07</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K70">
         <v>5</v>
@@ -6690,8 +7914,23 @@
       <c r="W70">
         <v>0.26</v>
       </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-100</v>
+      </c>
       <c r="AC70" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6699,22 +7938,25 @@
       <c r="AG70">
         <v>7.127825260162354</v>
       </c>
-      <c r="AH70" t="s">
-        <v>163</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688167</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>4.41</v>
@@ -6732,7 +7974,7 @@
         <v>51965.87</v>
       </c>
       <c r="J71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K71">
         <v>17</v>
@@ -6773,8 +8015,23 @@
       <c r="W71">
         <v>0.49</v>
       </c>
+      <c r="X71">
+        <v>-1.95</v>
+      </c>
+      <c r="Y71">
+        <v>138</v>
+      </c>
+      <c r="Z71">
+        <v>6.16</v>
+      </c>
       <c r="AC71" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6782,22 +8039,25 @@
       <c r="AG71">
         <v>3.078698396682739</v>
       </c>
-      <c r="AH71" t="s">
-        <v>163</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688195</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>6.59</v>
@@ -6815,7 +8075,7 @@
         <v>64724.15</v>
       </c>
       <c r="J72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K72">
         <v>9</v>
@@ -6856,8 +8116,23 @@
       <c r="W72">
         <v>0.32</v>
       </c>
+      <c r="X72">
+        <v>2.87</v>
+      </c>
+      <c r="Y72">
+        <v>73.7</v>
+      </c>
+      <c r="Z72">
+        <v>10.35</v>
+      </c>
       <c r="AC72" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6865,22 +8140,25 @@
       <c r="AG72">
         <v>3.998791694641113</v>
       </c>
-      <c r="AH72" t="s">
-        <v>163</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688205</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>12.86</v>
@@ -6898,7 +8176,7 @@
         <v>134706.56</v>
       </c>
       <c r="J73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -6939,8 +8217,23 @@
       <c r="W73">
         <v>0.49</v>
       </c>
+      <c r="X73">
+        <v>7.05</v>
+      </c>
+      <c r="Y73">
+        <v>125</v>
+      </c>
+      <c r="Z73">
+        <v>9.65</v>
+      </c>
       <c r="AC73" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6948,22 +8241,25 @@
       <c r="AG73">
         <v>-3.563674449920654</v>
       </c>
-      <c r="AH73" t="s">
-        <v>163</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688228</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>4.92</v>
@@ -6981,7 +8277,7 @@
         <v>113817.11</v>
       </c>
       <c r="J74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -7022,8 +8318,23 @@
       <c r="W74">
         <v>-1.74</v>
       </c>
+      <c r="X74">
+        <v>16.52</v>
+      </c>
+      <c r="Y74">
+        <v>158.4</v>
+      </c>
+      <c r="Z74">
+        <v>32.79</v>
+      </c>
       <c r="AC74" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>1</v>
@@ -7031,22 +8342,25 @@
       <c r="AG74">
         <v>14.35351085662842</v>
       </c>
-      <c r="AH74" t="s">
-        <v>163</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688256</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>7.13</v>
@@ -7064,7 +8378,7 @@
         <v>1514415.41</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7105,8 +8419,23 @@
       <c r="W75">
         <v>0.02</v>
       </c>
+      <c r="X75">
+        <v>-6.01</v>
+      </c>
+      <c r="Y75">
+        <v>1534.97</v>
+      </c>
+      <c r="Z75">
+        <v>4.42</v>
+      </c>
       <c r="AC75" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7114,22 +8443,25 @@
       <c r="AG75">
         <v>7.943140983581543</v>
       </c>
-      <c r="AH75" t="s">
-        <v>163</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688270</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>12.32</v>
@@ -7147,7 +8479,7 @@
         <v>149637.15</v>
       </c>
       <c r="J76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K76">
         <v>12</v>
@@ -7188,8 +8520,23 @@
       <c r="W76">
         <v>-0.02</v>
       </c>
+      <c r="X76">
+        <v>-2.01</v>
+      </c>
+      <c r="Y76">
+        <v>84.77</v>
+      </c>
+      <c r="Z76">
+        <v>6.36</v>
+      </c>
       <c r="AC76" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7197,22 +8544,25 @@
       <c r="AG76">
         <v>7.542660236358643</v>
       </c>
-      <c r="AH76" t="s">
-        <v>163</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688313</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>4.2</v>
@@ -7230,7 +8580,7 @@
         <v>308605.21</v>
       </c>
       <c r="J77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K77">
         <v>13</v>
@@ -7271,8 +8621,23 @@
       <c r="W77">
         <v>0.25</v>
       </c>
+      <c r="X77">
+        <v>-3.67</v>
+      </c>
+      <c r="Y77">
+        <v>85.42</v>
+      </c>
+      <c r="Z77">
+        <v>1.21</v>
+      </c>
       <c r="AC77" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7280,22 +8645,25 @@
       <c r="AG77">
         <v>3.846055030822754</v>
       </c>
-      <c r="AH77" t="s">
-        <v>163</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688343</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>0.09</v>
@@ -7313,7 +8681,7 @@
         <v>241190.78</v>
       </c>
       <c r="J78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7354,8 +8722,23 @@
       <c r="W78">
         <v>-0.26</v>
       </c>
+      <c r="X78">
+        <v>6.38</v>
+      </c>
+      <c r="Y78">
+        <v>103.31</v>
+      </c>
+      <c r="Z78">
+        <v>11.59</v>
+      </c>
       <c r="AC78" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7363,22 +8746,25 @@
       <c r="AG78">
         <v>-2.540827512741089</v>
       </c>
-      <c r="AH78" t="s">
-        <v>163</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688372</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>2.6</v>
@@ -7396,7 +8782,7 @@
         <v>60474.8</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K79">
         <v>6</v>
@@ -7437,8 +8823,23 @@
       <c r="W79">
         <v>-0.39</v>
       </c>
+      <c r="X79">
+        <v>0.85</v>
+      </c>
+      <c r="Y79">
+        <v>82.72</v>
+      </c>
+      <c r="Z79">
+        <v>3.62</v>
+      </c>
       <c r="AC79" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7446,22 +8847,25 @@
       <c r="AG79">
         <v>4.6744065284729</v>
       </c>
-      <c r="AH79" t="s">
-        <v>163</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688498</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>5.24</v>
@@ -7479,7 +8883,7 @@
         <v>120474.3</v>
       </c>
       <c r="J80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K80">
         <v>13</v>
@@ -7520,8 +8924,23 @@
       <c r="W80">
         <v>0.37</v>
       </c>
+      <c r="X80">
+        <v>-5.26</v>
+      </c>
+      <c r="Y80">
+        <v>315.5</v>
+      </c>
+      <c r="Z80">
+        <v>1.42</v>
+      </c>
       <c r="AC80" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7529,22 +8948,25 @@
       <c r="AG80">
         <v>0.4792522192001343</v>
       </c>
-      <c r="AH80" t="s">
-        <v>163</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688502</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>11.54</v>
@@ -7562,7 +8984,7 @@
         <v>72547.87</v>
       </c>
       <c r="J81" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K81">
         <v>24</v>
@@ -7603,8 +9025,23 @@
       <c r="W81">
         <v>0.55</v>
       </c>
+      <c r="X81">
+        <v>-5.22</v>
+      </c>
+      <c r="Y81">
+        <v>467.83</v>
+      </c>
+      <c r="Z81">
+        <v>0.34</v>
+      </c>
       <c r="AC81" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7612,22 +9049,25 @@
       <c r="AG81">
         <v>4.576583385467529</v>
       </c>
-      <c r="AH81" t="s">
-        <v>163</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688508</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>1.17</v>
@@ -7645,7 +9085,7 @@
         <v>71823.25999999999</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K82">
         <v>7</v>
@@ -7686,8 +9126,23 @@
       <c r="W82">
         <v>0</v>
       </c>
+      <c r="X82">
+        <v>-2.13</v>
+      </c>
+      <c r="Y82">
+        <v>73.5</v>
+      </c>
+      <c r="Z82">
+        <v>2.74</v>
+      </c>
       <c r="AC82" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7695,22 +9150,25 @@
       <c r="AG82">
         <v>2.312961339950562</v>
       </c>
-      <c r="AH82" t="s">
-        <v>163</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688521</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>3.21</v>
@@ -7728,7 +9186,7 @@
         <v>287725.06</v>
       </c>
       <c r="J83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K83">
         <v>7</v>
@@ -7769,8 +9227,23 @@
       <c r="W83">
         <v>0.33</v>
       </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>-100</v>
+      </c>
       <c r="AC83" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7778,22 +9251,25 @@
       <c r="AG83">
         <v>1.012543678283691</v>
       </c>
-      <c r="AH83" t="s">
-        <v>163</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688588</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>2.57</v>
@@ -7811,7 +9287,7 @@
         <v>52445.89</v>
       </c>
       <c r="J84" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K84">
         <v>4</v>
@@ -7852,8 +9328,23 @@
       <c r="W84">
         <v>0.29</v>
       </c>
+      <c r="X84">
+        <v>-2.72</v>
+      </c>
+      <c r="Y84">
+        <v>23.48</v>
+      </c>
+      <c r="Z84">
+        <v>17.58</v>
+      </c>
       <c r="AC84" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7861,22 +9352,25 @@
       <c r="AG84">
         <v>5.406194686889648</v>
       </c>
-      <c r="AH84" t="s">
-        <v>163</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688629</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>5.12</v>
@@ -7894,7 +9388,7 @@
         <v>191758.03</v>
       </c>
       <c r="J85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -7935,8 +9429,23 @@
       <c r="W85">
         <v>0.7</v>
       </c>
+      <c r="X85">
+        <v>1.76</v>
+      </c>
+      <c r="Y85">
+        <v>93.95</v>
+      </c>
+      <c r="Z85">
+        <v>11.58</v>
+      </c>
       <c r="AC85" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7944,22 +9453,25 @@
       <c r="AG85">
         <v>-0.07560012489557266</v>
       </c>
-      <c r="AH85" t="s">
-        <v>163</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688709</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-0.2</v>
@@ -7977,7 +9489,7 @@
         <v>45689.37</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K86">
         <v>5</v>
@@ -8018,8 +9530,23 @@
       <c r="W86">
         <v>-0.27</v>
       </c>
+      <c r="X86">
+        <v>-5.17</v>
+      </c>
+      <c r="Y86">
+        <v>45.51</v>
+      </c>
+      <c r="Z86">
+        <v>1.2</v>
+      </c>
       <c r="AC86" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8027,22 +9554,25 @@
       <c r="AG86">
         <v>1.664606928825378</v>
       </c>
-      <c r="AH86" t="s">
-        <v>163</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688798</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-0.03</v>
@@ -8060,7 +9590,7 @@
         <v>45203.02</v>
       </c>
       <c r="J87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K87">
         <v>7</v>
@@ -8101,8 +9631,23 @@
       <c r="W87">
         <v>-0.19</v>
       </c>
+      <c r="X87">
+        <v>-5.38</v>
+      </c>
+      <c r="Y87">
+        <v>99</v>
+      </c>
+      <c r="Z87">
+        <v>3.61</v>
+      </c>
       <c r="AC87" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8110,22 +9655,25 @@
       <c r="AG87">
         <v>0.9352089762687683</v>
       </c>
-      <c r="AH87" t="s">
-        <v>163</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688981</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>13.17</v>
@@ -8143,7 +9691,7 @@
         <v>1854416.49</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -8184,8 +9732,23 @@
       <c r="W88">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X88">
+        <v>-3.74</v>
+      </c>
+      <c r="Y88">
+        <v>116</v>
+      </c>
+      <c r="Z88">
+        <v>0.97</v>
+      </c>
       <c r="AC88" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8193,8 +9756,11 @@
       <c r="AG88">
         <v>5.999032974243164</v>
       </c>
-      <c r="AH88" t="s">
-        <v>163</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
